--- a/Assets/Resources/Game_Units.xlsx
+++ b/Assets/Resources/Game_Units.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="169">
   <si>
     <t>ID</t>
   </si>
@@ -64,10 +64,13 @@
     <t>Abilities</t>
   </si>
   <si>
-    <t>Knight</t>
+    <t>HeroKnight</t>
   </si>
   <si>
     <t>rogues_8</t>
+  </si>
+  <si>
+    <t>Knight</t>
   </si>
   <si>
     <t>Hero</t>
@@ -82,10 +85,13 @@
     <t>FireSword</t>
   </si>
   <si>
-    <t>Mage</t>
+    <t>HeroMage</t>
   </si>
   <si>
     <t>rogues_23</t>
+  </si>
+  <si>
+    <t>Mage</t>
   </si>
   <si>
     <t>Magic</t>
@@ -97,22 +103,22 @@
     <t>HolyShield</t>
   </si>
   <si>
-    <t>Rouge</t>
+    <t>HeroRouge</t>
   </si>
   <si>
     <t>rogues_4</t>
   </si>
   <si>
+    <t>Rouge</t>
+  </si>
+  <si>
     <t>Pure</t>
   </si>
   <si>
-    <t>Archer_Squad</t>
+    <t>Archer</t>
   </si>
   <si>
-    <t>rogues_2</t>
-  </si>
-  <si>
-    <t>Archer Squad</t>
+    <t>rogues_3</t>
   </si>
   <si>
     <t>Ally</t>
@@ -121,31 +127,16 @@
     <t>Range</t>
   </si>
   <si>
-    <t>Knight_Squad</t>
-  </si>
-  <si>
     <t>rogues_5</t>
   </si>
   <si>
-    <t>Knight Squad</t>
-  </si>
-  <si>
-    <t>Mage_Squad</t>
-  </si>
-  <si>
     <t>rogues_24</t>
-  </si>
-  <si>
-    <t>Mage Squad</t>
   </si>
   <si>
     <t>Orc</t>
   </si>
   <si>
     <t>monsters_0</t>
-  </si>
-  <si>
-    <t>orc</t>
   </si>
   <si>
     <t>Enemy</t>
@@ -157,16 +148,10 @@
     <t>monsters_1</t>
   </si>
   <si>
-    <t>orc wizard</t>
-  </si>
-  <si>
     <t>Goblin</t>
   </si>
   <si>
     <t>monsters_2</t>
-  </si>
-  <si>
-    <t>goblin</t>
   </si>
   <si>
     <t>Orcblademaster</t>
@@ -175,16 +160,10 @@
     <t>monsters_3</t>
   </si>
   <si>
-    <t>orc blademaster</t>
-  </si>
-  <si>
     <t>Orcwarchief</t>
   </si>
   <si>
     <t>monsters_4</t>
-  </si>
-  <si>
-    <t>orc warchief</t>
   </si>
   <si>
     <t>Goblinarcher</t>
@@ -193,16 +172,10 @@
     <t>monsters_5</t>
   </si>
   <si>
-    <t>goblin archer</t>
-  </si>
-  <si>
     <t>Goblinmage</t>
   </si>
   <si>
     <t>monsters_6</t>
-  </si>
-  <si>
-    <t>goblin mage</t>
   </si>
   <si>
     <t>Goblinbrute</t>
@@ -211,16 +184,10 @@
     <t>monsters_7</t>
   </si>
   <si>
-    <t>goblin brute</t>
-  </si>
-  <si>
     <t>Ettin</t>
   </si>
   <si>
     <t>monsters_8</t>
-  </si>
-  <si>
-    <t>ettin</t>
   </si>
   <si>
     <t>Twoheadedettin</t>
@@ -229,16 +196,10 @@
     <t>monsters_9</t>
   </si>
   <si>
-    <t>two headed ettin</t>
-  </si>
-  <si>
     <t>Troll</t>
   </si>
   <si>
     <t>monsters_10</t>
-  </si>
-  <si>
-    <t>troll</t>
   </si>
   <si>
     <t>Smallslime</t>
@@ -247,16 +208,10 @@
     <t>monsters_11</t>
   </si>
   <si>
-    <t>small slime</t>
-  </si>
-  <si>
     <t>Bigslime</t>
   </si>
   <si>
     <t>monsters_12</t>
-  </si>
-  <si>
-    <t>big slime</t>
   </si>
   <si>
     <t>Slimebody</t>
@@ -265,16 +220,10 @@
     <t>monsters_13</t>
   </si>
   <si>
-    <t>slimebody</t>
-  </si>
-  <si>
     <t>Mergedslimebodies</t>
   </si>
   <si>
     <t>monsters_14</t>
-  </si>
-  <si>
-    <t>merged slimebodies</t>
   </si>
   <si>
     <t>Facelessmonk</t>
@@ -283,16 +232,10 @@
     <t>monsters_15</t>
   </si>
   <si>
-    <t>faceless monk</t>
-  </si>
-  <si>
     <t>Unholycardinal</t>
   </si>
   <si>
     <t>monsters_16</t>
-  </si>
-  <si>
-    <t>unholy cardinal</t>
   </si>
   <si>
     <t>Skeleton</t>
@@ -301,16 +244,10 @@
     <t>monsters_17</t>
   </si>
   <si>
-    <t>skeleton</t>
-  </si>
-  <si>
     <t>Skeletonarcher</t>
   </si>
   <si>
     <t>monsters_18</t>
-  </si>
-  <si>
-    <t>skeleton archer</t>
   </si>
   <si>
     <t>Lich</t>
@@ -319,16 +256,10 @@
     <t>monsters_19</t>
   </si>
   <si>
-    <t>lich</t>
-  </si>
-  <si>
     <t>Deathknight</t>
   </si>
   <si>
     <t>monsters_20</t>
-  </si>
-  <si>
-    <t>death knight</t>
   </si>
   <si>
     <t>Zombie</t>
@@ -337,16 +268,10 @@
     <t>monsters_21</t>
   </si>
   <si>
-    <t>zombie</t>
-  </si>
-  <si>
     <t>Ghoul</t>
   </si>
   <si>
     <t>monsters_22</t>
-  </si>
-  <si>
-    <t>ghoul</t>
   </si>
   <si>
     <t>Banshee</t>
@@ -355,16 +280,10 @@
     <t>monsters_23</t>
   </si>
   <si>
-    <t>banshee</t>
-  </si>
-  <si>
     <t>Reaper</t>
   </si>
   <si>
     <t>monsters_24</t>
-  </si>
-  <si>
-    <t>reaper</t>
   </si>
   <si>
     <t>Wraith</t>
@@ -373,16 +292,10 @@
     <t>monsters_25</t>
   </si>
   <si>
-    <t>wraith</t>
-  </si>
-  <si>
     <t>Cultist</t>
   </si>
   <si>
     <t>monsters_26</t>
-  </si>
-  <si>
-    <t>cultist</t>
   </si>
   <si>
     <t>Hagwitch</t>
@@ -391,16 +304,10 @@
     <t>monsters_27</t>
   </si>
   <si>
-    <t>hag/witch</t>
-  </si>
-  <si>
     <t>Giantcentipede</t>
   </si>
   <si>
     <t>monsters_28</t>
-  </si>
-  <si>
-    <t>giant centipede</t>
   </si>
   <si>
     <t>Lampreymander</t>
@@ -409,16 +316,10 @@
     <t>monsters_29</t>
   </si>
   <si>
-    <t>lampreymander</t>
-  </si>
-  <si>
     <t>Giantearthworm</t>
   </si>
   <si>
     <t>monsters_30</t>
-  </si>
-  <si>
-    <t>giant earthworm</t>
   </si>
   <si>
     <t>Manticore</t>
@@ -427,16 +328,10 @@
     <t>monsters_31</t>
   </si>
   <si>
-    <t>manticore</t>
-  </si>
-  <si>
     <t>Giantant</t>
   </si>
   <si>
     <t>monsters_32</t>
-  </si>
-  <si>
-    <t>giant ant</t>
   </si>
   <si>
     <t>Lycanthrope</t>
@@ -445,16 +340,10 @@
     <t>monsters_33</t>
   </si>
   <si>
-    <t>lycanthrope</t>
-  </si>
-  <si>
     <t>Giantbata</t>
   </si>
   <si>
     <t>monsters_34</t>
-  </si>
-  <si>
-    <t>giant bata</t>
   </si>
   <si>
     <t>Lessergiantant</t>
@@ -463,16 +352,10 @@
     <t>monsters_35</t>
   </si>
   <si>
-    <t>lesser giant ant</t>
-  </si>
-  <si>
     <t>Giantspider</t>
   </si>
   <si>
     <t>monsters_36</t>
-  </si>
-  <si>
-    <t>giant spider</t>
   </si>
   <si>
     <t>Lessergiantspider</t>
@@ -481,16 +364,10 @@
     <t>monsters_37</t>
   </si>
   <si>
-    <t>lesser giant spider</t>
-  </si>
-  <si>
     <t>Wargdirewolf</t>
   </si>
   <si>
     <t>monsters_38</t>
-  </si>
-  <si>
-    <t>warg/dire wolf</t>
   </si>
   <si>
     <t>Giantrat</t>
@@ -499,16 +376,10 @@
     <t>monsters_39</t>
   </si>
   <si>
-    <t>giant rat</t>
-  </si>
-  <si>
     <t>Dryad</t>
   </si>
   <si>
     <t>monsters_40</t>
-  </si>
-  <si>
-    <t>dryad</t>
   </si>
   <si>
     <t>Wendigo</t>
@@ -517,16 +388,10 @@
     <t>monsters_41</t>
   </si>
   <si>
-    <t>wendigo</t>
-  </si>
-  <si>
     <t>Rockgolem</t>
   </si>
   <si>
     <t>monsters_42</t>
-  </si>
-  <si>
-    <t>rock golem</t>
   </si>
   <si>
     <t>Centaur</t>
@@ -535,16 +400,10 @@
     <t>monsters_43</t>
   </si>
   <si>
-    <t>centaur</t>
-  </si>
-  <si>
     <t>Naga</t>
   </si>
   <si>
     <t>monsters_44</t>
-  </si>
-  <si>
-    <t>naga</t>
   </si>
   <si>
     <t>Forestspirit</t>
@@ -553,16 +412,10 @@
     <t>monsters_45</t>
   </si>
   <si>
-    <t>forest spirit</t>
-  </si>
-  <si>
     <t>Satyr</t>
   </si>
   <si>
     <t>monsters_46</t>
-  </si>
-  <si>
-    <t>satyr</t>
   </si>
   <si>
     <t>Minotaur</t>
@@ -571,16 +424,10 @@
     <t>monsters_47</t>
   </si>
   <si>
-    <t>minotaur</t>
-  </si>
-  <si>
     <t>Harpy</t>
   </si>
   <si>
     <t>monsters_48</t>
-  </si>
-  <si>
-    <t>harpy</t>
   </si>
   <si>
     <t>Gorgonmedusa</t>
@@ -589,16 +436,10 @@
     <t>monsters_49</t>
   </si>
   <si>
-    <t>gorgon/medusa</t>
-  </si>
-  <si>
     <t>Lizardfolkkoboldreptile</t>
   </si>
   <si>
     <t>monsters_50</t>
-  </si>
-  <si>
-    <t>lizardfolk / kobold (reptile)</t>
   </si>
   <si>
     <t>Drakelesserdragon</t>
@@ -607,16 +448,10 @@
     <t>monsters_51</t>
   </si>
   <si>
-    <t>drake / lesser dragon</t>
-  </si>
-  <si>
     <t>Dragon</t>
   </si>
   <si>
     <t>monsters_52</t>
-  </si>
-  <si>
-    <t>dragon</t>
   </si>
   <si>
     <t>Cockatrice</t>
@@ -625,16 +460,10 @@
     <t>monsters_53</t>
   </si>
   <si>
-    <t>cockatrice</t>
-  </si>
-  <si>
     <t>Basilisk</t>
   </si>
   <si>
     <t>monsters_54</t>
-  </si>
-  <si>
-    <t>basilisk</t>
   </si>
   <si>
     <t>Smallkoboldcanine</t>
@@ -643,16 +472,10 @@
     <t>monsters_55</t>
   </si>
   <si>
-    <t>small kobold (canine)</t>
-  </si>
-  <si>
     <t>Koboldcanine</t>
   </si>
   <si>
     <t>monsters_56</t>
-  </si>
-  <si>
-    <t>kobold (canine)</t>
   </si>
   <si>
     <t>Smallmyconid</t>
@@ -661,16 +484,10 @@
     <t>monsters_57</t>
   </si>
   <si>
-    <t>small myconid</t>
-  </si>
-  <si>
     <t>Largemyconid</t>
   </si>
   <si>
     <t>monsters_58</t>
-  </si>
-  <si>
-    <t>large myconid</t>
   </si>
   <si>
     <t>Angelarchangel</t>
@@ -679,16 +496,10 @@
     <t>monsters_59</t>
   </si>
   <si>
-    <t>angel / archangel</t>
-  </si>
-  <si>
     <t>Impdevil</t>
   </si>
   <si>
     <t>monsters_60</t>
-  </si>
-  <si>
-    <t>imp / devil</t>
   </si>
   <si>
     <t>Smallwrithingmass</t>
@@ -697,25 +508,16 @@
     <t>monsters_61</t>
   </si>
   <si>
-    <t>small writhing mass</t>
-  </si>
-  <si>
     <t>Largewrithingmass</t>
   </si>
   <si>
     <t>monsters_62</t>
   </si>
   <si>
-    <t>large writhing mass</t>
-  </si>
-  <si>
     <t>Writhinghumanoid</t>
   </si>
   <si>
     <t>monsters_63</t>
-  </si>
-  <si>
-    <t>writhing humanoid</t>
   </si>
 </sst>
 </file>
@@ -1102,22 +904,22 @@
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1">
-        <v>100.0</v>
+        <v>200.0</v>
       </c>
       <c r="H2" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I2" s="1">
         <v>0.1</v>
@@ -1126,13 +928,13 @@
         <v>0.2</v>
       </c>
       <c r="K2" s="2">
-        <v>20.0</v>
+        <v>35.0</v>
       </c>
       <c r="L2" s="3">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="M2" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="N2" s="1">
         <v>0.1</v>
@@ -1144,7 +946,7 @@
         <v>0.1</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
@@ -1159,25 +961,25 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1">
-        <v>75.0</v>
+        <v>175.0</v>
       </c>
       <c r="H3" s="1">
         <v>0.05</v>
@@ -1189,10 +991,10 @@
         <v>0.1</v>
       </c>
       <c r="K3" s="2">
-        <v>17.0</v>
+        <v>38.0</v>
       </c>
       <c r="L3" s="3">
-        <v>13.0</v>
+        <v>45.0</v>
       </c>
       <c r="M3" s="1">
         <v>2.0</v>
@@ -1207,7 +1009,7 @@
         <v>0.1</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
@@ -1222,25 +1024,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G4" s="1">
-        <v>60.0</v>
+        <v>150.0</v>
       </c>
       <c r="H4" s="1">
         <v>0.05</v>
@@ -1252,13 +1054,13 @@
         <v>0.1</v>
       </c>
       <c r="K4" s="2">
-        <v>30.0</v>
+        <v>50.0</v>
       </c>
       <c r="L4" s="3">
-        <v>40.0</v>
+        <v>57.0</v>
       </c>
       <c r="M4" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="N4" s="1">
         <v>0.3</v>
@@ -1283,25 +1085,25 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1">
-        <v>25.0</v>
+        <v>50.0</v>
       </c>
       <c r="H5" s="1">
         <v>0.05</v>
@@ -1344,34 +1146,34 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1">
-        <v>35.0</v>
+        <v>75.0</v>
       </c>
       <c r="H6" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I6" s="1">
         <v>0.05</v>
       </c>
       <c r="J6" s="1">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="K6" s="2">
         <v>15.0</v>
@@ -1405,25 +1207,25 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G7" s="1">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="H7" s="1">
         <v>0.05</v>
@@ -1466,22 +1268,22 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7">
         <v>125.0</v>
@@ -1527,22 +1329,22 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7">
         <v>93.0</v>
@@ -1588,22 +1390,22 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" s="7">
         <v>65.0</v>
@@ -1649,22 +1451,22 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G11" s="7">
         <v>125.0</v>
@@ -1710,22 +1512,22 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7">
         <v>80.0</v>
@@ -1771,22 +1573,22 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" s="7">
         <v>65.0</v>
@@ -1832,22 +1634,22 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G14" s="7">
         <v>43.0</v>
@@ -1893,22 +1695,22 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7">
         <v>57.0</v>
@@ -1954,22 +1756,22 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>69</v>
+        <v>58</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G16" s="7">
         <v>197.0</v>
@@ -2015,22 +1817,22 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>72</v>
+        <v>60</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7">
         <v>403.0</v>
@@ -2076,22 +1878,22 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>75</v>
+        <v>62</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G18" s="7">
         <v>166.0</v>
@@ -2137,22 +1939,22 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>78</v>
+        <v>64</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G19" s="7">
         <v>59.0</v>
@@ -2198,22 +2000,22 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>81</v>
+        <v>66</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G20" s="7">
         <v>125.0</v>
@@ -2259,22 +2061,22 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>84</v>
+        <v>68</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G21" s="7">
         <v>99.0</v>
@@ -2320,22 +2122,22 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>87</v>
+        <v>70</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" s="7">
         <v>117.0</v>
@@ -2381,22 +2183,22 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>90</v>
+        <v>72</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G23" s="7">
         <v>128.0</v>
@@ -2442,22 +2244,22 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>93</v>
+        <v>74</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7">
         <v>395.0</v>
@@ -2503,22 +2305,22 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>96</v>
+        <v>76</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G25" s="7">
         <v>59.0</v>
@@ -2564,22 +2366,22 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>99</v>
+        <v>78</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G26" s="7">
         <v>40.0</v>
@@ -2625,22 +2427,22 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>102</v>
+        <v>80</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G27" s="7">
         <v>219.0</v>
@@ -2686,22 +2488,22 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G28" s="7">
         <v>206.0</v>
@@ -2747,22 +2549,22 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>108</v>
+        <v>84</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G29" s="7">
         <v>62.0</v>
@@ -2808,22 +2610,22 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>111</v>
+        <v>86</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G30" s="7">
         <v>127.0</v>
@@ -2869,22 +2671,22 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>114</v>
+        <v>88</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G31" s="7">
         <v>123.0</v>
@@ -2930,22 +2732,22 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>117</v>
+        <v>90</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G32" s="7">
         <v>86.0</v>
@@ -2991,22 +2793,22 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>120</v>
+        <v>92</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G33" s="7">
         <v>114.0</v>
@@ -3052,22 +2854,22 @@
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>123</v>
+        <v>94</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G34" s="7">
         <v>120.0</v>
@@ -3113,22 +2915,22 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>126</v>
+        <v>96</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G35" s="7">
         <v>100.0</v>
@@ -3174,22 +2976,22 @@
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>129</v>
+        <v>98</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G36" s="7">
         <v>162.0</v>
@@ -3235,22 +3037,22 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>132</v>
+        <v>100</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G37" s="7">
         <v>88.0</v>
@@ -3296,22 +3098,22 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>135</v>
+        <v>102</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G38" s="7">
         <v>172.0</v>
@@ -3357,22 +3159,22 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>138</v>
+        <v>104</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G39" s="7">
         <v>284.0</v>
@@ -3418,22 +3220,22 @@
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>141</v>
+        <v>106</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G40" s="7">
         <v>65.0</v>
@@ -3479,22 +3281,22 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>144</v>
+        <v>108</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G41" s="7">
         <v>116.0</v>
@@ -3540,22 +3342,22 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>147</v>
+        <v>110</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G42" s="7">
         <v>129.0</v>
@@ -3601,22 +3403,22 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>150</v>
+        <v>112</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G43" s="7">
         <v>58.0</v>
@@ -3662,22 +3464,22 @@
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>153</v>
+        <v>114</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G44" s="7">
         <v>152.0</v>
@@ -3723,22 +3525,22 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>156</v>
+        <v>116</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G45" s="7">
         <v>228.0</v>
@@ -3784,22 +3586,22 @@
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>159</v>
+        <v>118</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G46" s="7">
         <v>100.0</v>
@@ -3845,22 +3647,22 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>162</v>
+        <v>120</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G47" s="7">
         <v>56.0</v>
@@ -3906,22 +3708,22 @@
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>165</v>
+        <v>122</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G48" s="7">
         <v>96.0</v>
@@ -3967,22 +3769,22 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>168</v>
+        <v>124</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G49" s="7">
         <v>219.0</v>
@@ -4028,22 +3830,22 @@
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>171</v>
+        <v>126</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G50" s="7">
         <v>293.0</v>
@@ -4089,22 +3891,22 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>174</v>
+        <v>128</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G51" s="7">
         <v>183.0</v>
@@ -4150,22 +3952,22 @@
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>177</v>
+        <v>130</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G52" s="7">
         <v>181.0</v>
@@ -4211,22 +4013,22 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>180</v>
+        <v>132</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G53" s="7">
         <v>91.0</v>
@@ -4272,22 +4074,22 @@
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>183</v>
+        <v>134</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G54" s="7">
         <v>86.0</v>
@@ -4333,22 +4135,22 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>186</v>
+        <v>136</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G55" s="7">
         <v>210.0</v>
@@ -4394,22 +4196,22 @@
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>189</v>
+        <v>138</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G56" s="7">
         <v>117.0</v>
@@ -4455,22 +4257,22 @@
     </row>
     <row r="57">
       <c r="A57" s="5" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>192</v>
+        <v>140</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G57" s="7">
         <v>355.0</v>
@@ -4516,22 +4318,22 @@
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
-        <v>193</v>
+        <v>141</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>195</v>
+        <v>142</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G58" s="7">
         <v>65.0</v>
@@ -4577,22 +4379,22 @@
     </row>
     <row r="59">
       <c r="A59" s="5" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>198</v>
+        <v>144</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G59" s="7">
         <v>332.0</v>
@@ -4638,22 +4440,22 @@
     </row>
     <row r="60">
       <c r="A60" s="5" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>201</v>
+        <v>146</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G60" s="7">
         <v>389.0</v>
@@ -4699,22 +4501,22 @@
     </row>
     <row r="61">
       <c r="A61" s="5" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>204</v>
+        <v>148</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G61" s="7">
         <v>114.0</v>
@@ -4760,22 +4562,22 @@
     </row>
     <row r="62">
       <c r="A62" s="5" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>207</v>
+        <v>150</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G62" s="7">
         <v>383.0</v>
@@ -4821,22 +4623,22 @@
     </row>
     <row r="63">
       <c r="A63" s="5" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>210</v>
+        <v>152</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G63" s="7">
         <v>59.0</v>
@@ -4882,22 +4684,22 @@
     </row>
     <row r="64">
       <c r="A64" s="5" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>213</v>
+        <v>154</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G64" s="7">
         <v>54.0</v>
@@ -4943,22 +4745,22 @@
     </row>
     <row r="65">
       <c r="A65" s="5" t="s">
-        <v>214</v>
+        <v>155</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>216</v>
+        <v>156</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G65" s="7">
         <v>66.0</v>
@@ -5004,22 +4806,22 @@
     </row>
     <row r="66">
       <c r="A66" s="5" t="s">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>219</v>
+        <v>158</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G66" s="7">
         <v>171.0</v>
@@ -5065,22 +4867,22 @@
     </row>
     <row r="67">
       <c r="A67" s="5" t="s">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>222</v>
+        <v>160</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G67" s="7">
         <v>357.0</v>
@@ -5126,22 +4928,22 @@
     </row>
     <row r="68">
       <c r="A68" s="5" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>225</v>
+        <v>162</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G68" s="7">
         <v>44.0</v>
@@ -5187,22 +4989,22 @@
     </row>
     <row r="69">
       <c r="A69" s="5" t="s">
-        <v>226</v>
+        <v>163</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>228</v>
+        <v>164</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G69" s="7">
         <v>45.0</v>
@@ -5248,22 +5050,22 @@
     </row>
     <row r="70">
       <c r="A70" s="5" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>231</v>
+        <v>166</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G70" s="7">
         <v>180.0</v>
@@ -5309,22 +5111,22 @@
     </row>
     <row r="71">
       <c r="A71" s="5" t="s">
-        <v>232</v>
+        <v>167</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>234</v>
+        <v>168</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G71" s="7">
         <v>66.0</v>

--- a/Assets/Resources/Game_Units.xlsx
+++ b/Assets/Resources/Game_Units.xlsx
@@ -67,7 +67,7 @@
     <t>HeroKnight</t>
   </si>
   <si>
-    <t>rogues_8</t>
+    <t>rogues_5</t>
   </si>
   <si>
     <t>Knight</t>
@@ -88,7 +88,7 @@
     <t>HeroMage</t>
   </si>
   <si>
-    <t>rogues_23</t>
+    <t>rogues_24</t>
   </si>
   <si>
     <t>Mage</t>
@@ -106,7 +106,7 @@
     <t>HeroRouge</t>
   </si>
   <si>
-    <t>rogues_4</t>
+    <t>rogues_3</t>
   </si>
   <si>
     <t>Rouge</t>
@@ -118,7 +118,7 @@
     <t>Archer</t>
   </si>
   <si>
-    <t>rogues_3</t>
+    <t>rogues_2</t>
   </si>
   <si>
     <t>Ally</t>
@@ -127,10 +127,10 @@
     <t>Range</t>
   </si>
   <si>
-    <t>rogues_5</t>
+    <t>rogues_9</t>
   </si>
   <si>
-    <t>rogues_24</t>
+    <t>rogues_26</t>
   </si>
   <si>
     <t>Orc</t>

--- a/Assets/Resources/Game_Units.xlsx
+++ b/Assets/Resources/Game_Units.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="UnitDefinitionSO" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="UnitSO" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>

--- a/Assets/Resources/Game_Units.xlsx
+++ b/Assets/Resources/Game_Units.xlsx
@@ -916,7 +916,7 @@
         <v>22</v>
       </c>
       <c r="G2" s="1">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H2" s="1">
         <v>0.4</v>
@@ -979,7 +979,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="1">
-        <v>175.0</v>
+        <v>375.0</v>
       </c>
       <c r="H3" s="1">
         <v>0.05</v>
@@ -1042,7 +1042,7 @@
         <v>33</v>
       </c>
       <c r="G4" s="1">
-        <v>150.0</v>
+        <v>400.0</v>
       </c>
       <c r="H4" s="1">
         <v>0.05</v>
@@ -1103,7 +1103,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="1">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
       <c r="H5" s="1">
         <v>0.05</v>
@@ -1164,7 +1164,7 @@
         <v>22</v>
       </c>
       <c r="G6" s="1">
-        <v>75.0</v>
+        <v>175.0</v>
       </c>
       <c r="H6" s="1">
         <v>0.3</v>
@@ -1225,7 +1225,7 @@
         <v>28</v>
       </c>
       <c r="G7" s="1">
-        <v>40.0</v>
+        <v>80.0</v>
       </c>
       <c r="H7" s="1">
         <v>0.05</v>
